--- a/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45F8452-5931-45B0-A1B3-AA0FF54528AF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8040" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,11 @@
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="0" calcMode="manual"/>
+  <oleSize ref="A2:J2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
   <si>
     <t>Report Channel</t>
   </si>
@@ -58,12 +60,87 @@
   </si>
   <si>
     <t>OCM Agent Login Logout Report</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Palak garg</t>
+  </si>
+  <si>
+    <t>Is  not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts with </t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>chatbot</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>23-01-2020 000000</t>
+  </si>
+  <si>
+    <t>27-01-2020 000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT M.[AgentID] AS 'Agent ID',A.[AgentName] AS 'Agent Name',A.TeamName AS 'Team Name',A.SupervisorName AS 'Supervisor Name',[LoginDateTime] AS 'Login Date Time',[LogoutDateTime] AS 'Logout Date Time',[LogoutReason] AS 'Logout Reason',
+       [StationID] AS 'Station ID',[SkillList] AS 'Skill List',[SkillNameList] AS 'Skill Name List' FROM
+       (SELECT DISTINCT I.ID AS Id,I.AgentID AS AgentId,A.UserName AS AgentName,I.StationID AS StationId,(I.LoginDate+I.LoginTime) AS LoginDateTime,
+              (I.LogoutDate+I.LogoutTime) AS LogoutDateTime,I.SkillList,Skills.SkillList as SkillNameList,LogoutReason,LogoutReasonCode 
+              FROM AGT_Agent_TimeTrack I with(nolock) 
+              LEFT JOIN AGT_Agent A with(nolock) ON A.AvayaLoginID=I.AgentID
+              LEFT JOIN TMAC_Interactions T with(nolock) ON T.AgentID=I.AgentID 
+              CROSS APPLY 
+              (SELECT STUFF((SELECT ','+ SkillName from (
+              SELECT SkillName  FROM TMAC_Skills
+              WHERE SkillExtension in (Select Id from BreakStringIntoRows (I.SkillList)) 
+              union
+              SELECT ID as SkillName FROM BreakStringIntoRows (I.SkillList) WHERE ID NOT IN (SELECT SkillExtension from TMAC_Skills)) Skill order by SkillName desc
+              FOR XML PATH('')), 1, 1, '' ) SkillList
+              ) AS Skills
+              WHERE A.UserName != 'NULL') M 
+       INNER JOIN fn_AgentHierarchy('na',1,1) A ON  A.AgentId=M.AgentID
+       where LogoutDateTime&gt;='ReportBeforeDate' and LogoutDateTime&lt;='ReportAfterDate'
+</t>
+  </si>
+  <si>
+    <t>11-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>13-02-2020 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,9 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -384,7 +466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -425,11 +507,213 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A1EAB-F881-4B86-A3E3-081C46011C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,22 +763,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +793,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -527,12 +814,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BEED6-9E0D-4C15-B8C6-0F6124EFA13A}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,9 +828,10 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +847,9 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -582,23 +871,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,10 +899,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -620,10 +925,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -631,23 +951,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DA6B1-CCD8-43EF-9A87-EEA417F7CC00}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +984,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -674,11 +998,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D938C7F3-525F-4BDD-A039-F3B791369C13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8040" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,6 @@
     <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" calcMode="manual"/>
-  <oleSize ref="A2:J2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,16 +131,16 @@
 </t>
   </si>
   <si>
-    <t>11-02-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>13-02-2020 00:00:00</t>
+    <t>19-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>27-03-2020 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,22 +457,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -507,25 +507,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -577,7 +577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -629,7 +629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -661,21 +661,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -709,22 +709,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,23 +764,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -815,23 +815,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +849,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,23 +872,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,23 +952,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="6" max="6" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>

--- a/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D938C7F3-525F-4BDD-A039-F3B791369C13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="8040" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
     <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="69">
   <si>
     <t>Report Channel</t>
   </si>
@@ -44,9 +43,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Date Range</t>
   </si>
   <si>
@@ -77,18 +73,12 @@
     <t>Is equal to</t>
   </si>
   <si>
-    <t>Palak garg</t>
-  </si>
-  <si>
     <t>Is  not equal to</t>
   </si>
   <si>
     <t>Contains</t>
   </si>
   <si>
-    <t>garg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starts with </t>
   </si>
   <si>
@@ -98,16 +88,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>chatbot</t>
-  </si>
-  <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t>23-01-2020 000000</t>
-  </si>
-  <si>
-    <t>27-01-2020 000000</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT M.[AgentID] AS 'Agent ID',A.[AgentName] AS 'Agent Name',A.TeamName AS 'Team Name',A.SupervisorName AS 'Supervisor Name',[LoginDateTime] AS 'Login Date Time',[LogoutDateTime] AS 'Logout Date Time',[LogoutReason] AS 'Logout Reason',
@@ -131,23 +112,164 @@
 </t>
   </si>
   <si>
-    <t>19-03-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>27-03-2020 00:00:00</t>
+    <t>11-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>13-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>19-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Murali MS</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Palak Garg</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Supervisor  Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murali </t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>second(s)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>minute(s)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hour(s)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>day(s)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>week(s)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>month(s)</t>
+  </si>
+  <si>
+    <t>year(s)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>GetNumber</t>
+  </si>
+  <si>
+    <t>GetCalendarType</t>
+  </si>
+  <si>
+    <t>30-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>31-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ends with </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Amitha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +299,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,22 +579,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,19 +608,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -507,25 +636,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,123 +667,340 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -661,21 +1009,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,18 +1037,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -709,22 +1057,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,27 +1084,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -764,23 +1113,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,20 +1142,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -815,23 +1169,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,28 +1196,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -872,23 +1231,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,51 +1264,211 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -952,23 +1477,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,33 +1504,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="362.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="8040" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="70">
   <si>
     <t>Report Channel</t>
   </si>
@@ -251,6 +252,9 @@
   </si>
   <si>
     <t>Amitha</t>
+  </si>
+  <si>
+    <t>22-05-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -360,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -572,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,7 +587,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -639,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1239,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C434AC2-3E14-481A-A541-1855BDA3D4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,6 @@
     <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="67">
   <si>
     <t>Report Channel</t>
   </si>
@@ -92,48 +92,12 @@
     <t>Query</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT M.[AgentID] AS 'Agent ID',A.[AgentName] AS 'Agent Name',A.TeamName AS 'Team Name',A.SupervisorName AS 'Supervisor Name',[LoginDateTime] AS 'Login Date Time',[LogoutDateTime] AS 'Logout Date Time',[LogoutReason] AS 'Logout Reason',
-       [StationID] AS 'Station ID',[SkillList] AS 'Skill List',[SkillNameList] AS 'Skill Name List' FROM
-       (SELECT DISTINCT I.ID AS Id,I.AgentID AS AgentId,A.UserName AS AgentName,I.StationID AS StationId,(I.LoginDate+I.LoginTime) AS LoginDateTime,
-              (I.LogoutDate+I.LogoutTime) AS LogoutDateTime,I.SkillList,Skills.SkillList as SkillNameList,LogoutReason,LogoutReasonCode 
-              FROM AGT_Agent_TimeTrack I with(nolock) 
-              LEFT JOIN AGT_Agent A with(nolock) ON A.AvayaLoginID=I.AgentID
-              LEFT JOIN TMAC_Interactions T with(nolock) ON T.AgentID=I.AgentID 
-              CROSS APPLY 
-              (SELECT STUFF((SELECT ','+ SkillName from (
-              SELECT SkillName  FROM TMAC_Skills
-              WHERE SkillExtension in (Select Id from BreakStringIntoRows (I.SkillList)) 
-              union
-              SELECT ID as SkillName FROM BreakStringIntoRows (I.SkillList) WHERE ID NOT IN (SELECT SkillExtension from TMAC_Skills)) Skill order by SkillName desc
-              FOR XML PATH('')), 1, 1, '' ) SkillList
-              ) AS Skills
-              WHERE A.UserName != 'NULL') M 
-       INNER JOIN fn_AgentHierarchy('na',1,1) A ON  A.AgentId=M.AgentID
-       where LogoutDateTime&gt;='ReportBeforeDate' and LogoutDateTime&lt;='ReportAfterDate'
-</t>
-  </si>
-  <si>
-    <t>11-02-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>13-02-2020 00:00:00</t>
-  </si>
-  <si>
     <t>DeleteReason</t>
   </si>
   <si>
     <t>Delete</t>
   </si>
   <si>
-    <t>19-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>20-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -149,12 +113,6 @@
     <t>Is not equal to</t>
   </si>
   <si>
-    <t>Murali MS</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Does not contain</t>
   </si>
   <si>
@@ -164,24 +122,12 @@
     <t>Ends with</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Palak Garg</t>
-  </si>
-  <si>
     <t>Team Name</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Supervisor  Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murali </t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -230,38 +176,87 @@
     <t>GetCalendarType</t>
   </si>
   <si>
-    <t>30-03-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>31-03-2020 00:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ends with </t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Agent ID</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Amitha</t>
-  </si>
-  <si>
-    <t>22-05-2020 00:00:00</t>
+    <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],[StationID] as [Station ID],
+[SkillList] as [Skill List],[SkillNameList] as [Skill Name List],
+FORMAT([dbo].[VARCHARTODATETIME] (M.LoginDateTime),'dd/MM/yyyy HH:mm:ss') as [Login Date Time],
+FORMAT([dbo].[VARCHARTODATETIME] (M.LogoutDateTime),'dd/MM/yyyy HH:mm:ss')as [Logout Date Time],
+--[LogoutReasonCode] as [Logout Reason Code],
+[LogoutReason] as [Logout Reason],A.TeamName as [Team Name],
+A.SupervisorName as [Supervisor Name] from (
+SELECT DISTINCT I.ID AS Id,I.AgentID AS AgentId,A.UserName AS AgentName,I.StationID AS StationId,(I.LoginDate+I.LoginTime) AS LoginDateTime,
+  (I.LogoutDate+I.LogoutTime) AS LogoutDateTime,I.SkillList,Skills.SkillList as SkillNameList,LogoutReason,LogoutReasonCode 
+  FROM AGT_Agent_TimeTrack I with(nolock) 
+  LEFT JOIN AGT_Agent A with(nolock) ON A.AvayaLoginID=I.AgentID
+  LEFT JOIN TMAC_Interactions T with(nolock) ON T.AgentID=I.AgentID 
+  CROSS APPLY 
+  (SELECT STUFF((SELECT ','+ SkillName from (
+  SELECT SkillName  FROM TMAC_Skills
+  WHERE SkillExtension in (Select Id from BreakStringIntoRows (I.SkillList)) 
+  union
+  SELECT ID as SkillName FROM BreakStringIntoRows (I.SkillList) WHERE ID NOT IN (SELECT SkillExtension from TMAC_Skills)) Skill order by SkillName desc
+  FOR XML PATH('')), 1, 1, '' ) SkillList
+  ) AS Skills
+  WHERE A.UserName != 'NULL' AND  LogoutDate+LogoutTime&gt;='ReportBeforeDate' AND LogoutDate+LogoutTime&lt;='ReportAfterDate') 
+  M INNER JOIN fn_AgentHierarchy('na','','') A  ON  A.AgentId=M.AgentID
+  order by M.LogoutDateTime ASC;</t>
+  </si>
+  <si>
+    <t>Supervisor Name</t>
+  </si>
+  <si>
+    <t>16-03-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Anitha Acharya</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>50011</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Kavitha</t>
+  </si>
+  <si>
+    <t>Hitesh</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Contact Centre</t>
+  </si>
+  <si>
+    <t>01-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>18-03-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>30-04-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>03-05-2021 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +269,20 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,14 +305,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,30 +594,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,10 +631,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -626,11 +644,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>69</v>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -640,27 +658,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="11" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,16 +704,16 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -705,11 +723,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -718,13 +736,13 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -734,11 +752,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -747,10 +765,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,11 +778,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -773,10 +791,10 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -786,11 +804,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
+      <c r="D5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -799,10 +817,10 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -812,49 +830,49 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>62</v>
+      <c r="D6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E7" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,133 +882,133 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="4" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,34 +1018,36 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>57</v>
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1051,8 +1071,8 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1061,23 +1081,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,11 +1124,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1117,23 +1137,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,10 +1167,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,11 +1180,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1173,23 +1193,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,10 +1226,10 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1219,14 +1239,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1235,29 +1255,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,13 +1306,13 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1302,11 +1322,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1318,16 +1338,16 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1337,29 +1357,29 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1369,26 +1389,26 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1398,11 +1418,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
+      <c r="D5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1411,13 +1431,13 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1427,26 +1447,26 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
+      <c r="D6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1456,11 +1476,11 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
+      <c r="D7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1469,35 +1489,37 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
     <col min="6" max="6" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1517,27 +1539,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C434AC2-3E14-481A-A541-1855BDA3D4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086A7F9-B02C-4310-A31B-A2EC312A10A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="68">
   <si>
     <t>Report Channel</t>
   </si>
@@ -98,6 +98,9 @@
     <t>Delete</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>Is not equal to</t>
   </si>
   <si>
+    <t>QA</t>
+  </si>
+  <si>
     <t>Does not contain</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
     <t>Ends with</t>
   </si>
   <si>
+    <t>Palak Garg</t>
+  </si>
+  <si>
     <t>Team Name</t>
   </si>
   <si>
@@ -179,7 +188,13 @@
     <t xml:space="preserve">Ends with </t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>Agent ID</t>
+  </si>
+  <si>
+    <t>MS</t>
   </si>
   <si>
     <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],[StationID] as [Station ID],
@@ -207,56 +222,44 @@
   order by M.LogoutDateTime ASC;</t>
   </si>
   <si>
+    <t>21-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>20-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>06-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>Murali</t>
+  </si>
+  <si>
     <t>Supervisor Name</t>
   </si>
   <si>
+    <t>Garg</t>
+  </si>
+  <si>
+    <t>ProductQA</t>
+  </si>
+  <si>
     <t>16-03-2021 00:00:00</t>
   </si>
   <si>
-    <t>Anitha Acharya</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>50011</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>Kavitha</t>
-  </si>
-  <si>
-    <t>Hitesh</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Contact Centre</t>
-  </si>
-  <si>
-    <t>01-01-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>18-03-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>30-04-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>03-05-2021 00:00:00</t>
+    <t>01-04-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>08-04-2021 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,12 +277,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -605,13 +602,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7265625" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
@@ -645,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -661,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
@@ -704,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>21</v>
@@ -724,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -736,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -753,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -765,7 +762,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -779,10 +776,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -805,10 +802,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -817,7 +814,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -831,19 +828,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -857,19 +854,19 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -883,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -900,10 +897,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -917,10 +914,10 @@
         <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -934,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -951,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -968,10 +965,10 @@
         <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -985,10 +982,10 @@
         <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1002,10 +999,10 @@
         <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1019,14 +1016,13 @@
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1036,7 +1032,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1072,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1125,10 +1121,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1137,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1181,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1197,7 +1193,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,10 +1236,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -1258,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1306,10 +1302,10 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1323,10 +1319,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1338,13 +1334,13 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1358,25 +1354,25 @@
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1390,22 +1386,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1419,10 +1415,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1431,10 +1427,10 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1448,22 +1444,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1477,10 +1473,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1489,14 +1485,13 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1550,13 +1545,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086A7F9-B02C-4310-A31B-A2EC312A10A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59866A8-9C06-48BD-8972-0D82BB07FCED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Is not equal to</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Does not contain</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ends with </t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>Agent ID</t>
@@ -234,18 +225,12 @@
     <t>602</t>
   </si>
   <si>
-    <t>Murali</t>
-  </si>
-  <si>
     <t>Supervisor Name</t>
   </si>
   <si>
     <t>Garg</t>
   </si>
   <si>
-    <t>ProductQA</t>
-  </si>
-  <si>
     <t>16-03-2021 00:00:00</t>
   </si>
   <si>
@@ -253,6 +238,21 @@
   </si>
   <si>
     <t>08-04-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>Radhe</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Gar</t>
   </si>
 </sst>
 </file>
@@ -605,16 +605,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -659,23 +659,23 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="11" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="11" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,16 +701,16 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -721,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -733,13 +733,13 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -750,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -762,10 +762,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -776,10 +776,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -787,11 +787,11 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -802,10 +802,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -814,10 +814,10 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,22 +828,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,22 +854,22 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,132 +880,132 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="3" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1016,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1035,15 +1035,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1084,16 +1084,16 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1121,10 +1121,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1140,16 +1140,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1196,16 +1196,16 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1236,10 +1236,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -1254,26 +1254,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,13 +1302,13 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1319,10 +1319,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1334,16 +1334,16 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1354,28 +1354,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1386,25 +1386,25 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1415,10 +1415,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1427,42 +1427,42 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1473,10 +1473,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1485,10 +1485,10 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1500,21 +1500,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1545,13 +1545,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentLoginLogoutReportData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59866A8-9C06-48BD-8972-0D82BB07FCED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6804D6D9-5845-4B81-BA25-E97A5D7FA369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -188,12 +188,54 @@
     <t>MS</t>
   </si>
   <si>
+    <t>21-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>20-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>06-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>Supervisor Name</t>
+  </si>
+  <si>
+    <t>Garg</t>
+  </si>
+  <si>
+    <t>16-03-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>Radhe</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Gar</t>
+  </si>
+  <si>
+    <t>09-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>11-11-2021 00:00:00</t>
+  </si>
+  <si>
     <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],[StationID] as [Station ID],
 [SkillList] as [Skill List],[SkillNameList] as [Skill Name List],
 FORMAT([dbo].[VARCHARTODATETIME] (M.LoginDateTime),'dd/MM/yyyy HH:mm:ss') as [Login Date Time],
 FORMAT([dbo].[VARCHARTODATETIME] (M.LogoutDateTime),'dd/MM/yyyy HH:mm:ss')as [Logout Date Time],
 --[LogoutReasonCode] as [Logout Reason Code],
-[LogoutReason] as [Logout Reason],A.TeamName as [Team Name],
+[LogoutReason] as [Logout Reason],A.TeamName as [Org.Unit],
 A.SupervisorName as [Supervisor Name] from (
 SELECT DISTINCT I.ID AS Id,I.AgentID AS AgentId,A.UserName AS AgentName,I.StationID AS StationId,(I.LoginDate+I.LoginTime) AS LoginDateTime,
   (I.LogoutDate+I.LogoutTime) AS LogoutDateTime,I.SkillList,Skills.SkillList as SkillNameList,LogoutReason,LogoutReasonCode 
@@ -211,48 +253,6 @@
   WHERE A.UserName != 'NULL' AND  LogoutDate+LogoutTime&gt;='ReportBeforeDate' AND LogoutDate+LogoutTime&lt;='ReportAfterDate') 
   M INNER JOIN fn_AgentHierarchy('na','','') A  ON  A.AgentId=M.AgentID
   order by M.LogoutDateTime ASC;</t>
-  </si>
-  <si>
-    <t>21-01-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>20-01-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>06-01-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>Supervisor Name</t>
-  </si>
-  <si>
-    <t>Garg</t>
-  </si>
-  <si>
-    <t>16-03-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>01-04-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>08-04-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>ang</t>
-  </si>
-  <si>
-    <t>Radhe</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>Gar</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -721,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -750,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -776,10 +776,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -788,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -802,10 +802,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -828,10 +828,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -840,7 +840,7 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -854,10 +854,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1121,10 +1121,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,10 +1236,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -1254,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1319,10 +1319,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1337,7 +1337,7 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>26</v>
@@ -1354,10 +1354,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1386,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1401,7 +1401,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1415,10 +1415,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1444,22 +1444,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1473,10 +1473,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1488,7 +1488,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1545,13 +1545,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
